--- a/data/trans_dic/P19F$tarde-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19F$tarde-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1680614708607402</v>
+        <v>0.16688444311273</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2014216555377925</v>
+        <v>0.2062166620171274</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1997546795781959</v>
+        <v>0.2037715851888259</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2974367415201326</v>
+        <v>0.304127314857732</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3540814831141507</v>
+        <v>0.3552492071432829</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2958237530933918</v>
+        <v>0.3006526204434465</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2729428115877404</v>
+        <v>0.2843975439102865</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.253146300510664</v>
+        <v>0.2565313536454542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2832809961394241</v>
+        <v>0.2829207898023061</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3941178463601338</v>
+        <v>0.4045267974456228</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3776689596611263</v>
+        <v>0.3758927634178741</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3698928824023186</v>
+        <v>0.3655188931469704</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2825251361328071</v>
+        <v>0.2873450168508196</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1414240138687303</v>
+        <v>0.132375914461925</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.244517607270186</v>
+        <v>0.2443378504856327</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4437552460503245</v>
+        <v>0.442497440702561</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3239099102251846</v>
+        <v>0.2937574506015301</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3574885253622433</v>
+        <v>0.3608737963129607</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1949007706048057</v>
+        <v>0.189566232343273</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1697516558030045</v>
+        <v>0.1704186702359445</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1984823568562757</v>
+        <v>0.2000422247786151</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3192937254909348</v>
+        <v>0.3126194740609594</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2937702782600473</v>
+        <v>0.2918285437916013</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2857519545217228</v>
+        <v>0.281918124265008</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4076129634935689</v>
+        <v>0.4149794975288678</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4445990454855039</v>
+        <v>0.4337118731411085</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4511849292645237</v>
+        <v>0.4519549379856559</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5734848145498379</v>
+        <v>0.5770682252343948</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5938180852883512</v>
+        <v>0.6023712618021084</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5639718895456597</v>
+        <v>0.5603735013973431</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2789320499726366</v>
+        <v>0.2953957837326019</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3897893109614023</v>
+        <v>0.389394274160911</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3636462181861656</v>
+        <v>0.3623179070189154</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4451691953026853</v>
+        <v>0.443223903557104</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5334081071894053</v>
+        <v>0.5380137670295881</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4726735205994069</v>
+        <v>0.4706954800141475</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.222909242696177</v>
+        <v>0.2245984289916401</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2679822877176811</v>
+        <v>0.2712328459693109</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2588633159833221</v>
+        <v>0.258490146056499</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3220605355899729</v>
+        <v>0.3220913590879949</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3705531357392613</v>
+        <v>0.37057744225463</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.328472249818801</v>
+        <v>0.3276619745561747</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2322866269037901</v>
+        <v>0.2322427204074402</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2322393330552481</v>
+        <v>0.2292858656600202</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2448409492201973</v>
+        <v>0.2482742610325919</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3314747945410081</v>
+        <v>0.3332630539695068</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3306855126713198</v>
+        <v>0.335450490658445</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.315992900529691</v>
+        <v>0.3163378883964403</v>
       </c>
     </row>
     <row r="28">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2876208458826624</v>
+        <v>0.2827161440561978</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2981978331198438</v>
+        <v>0.2969727946231023</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2987374664765745</v>
+        <v>0.2984832007950673</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3320003318384314</v>
+        <v>0.3286034965603585</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3443798131105271</v>
+        <v>0.3445186690514644</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3315101294988779</v>
+        <v>0.3293800994754632</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>30125</v>
+        <v>29914</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>32606</v>
+        <v>33382</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>68142</v>
+        <v>69512</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>53316</v>
+        <v>54515</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>57318</v>
+        <v>57507</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>100914</v>
+        <v>102561</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>69139</v>
+        <v>72040</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>59969</v>
+        <v>60771</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>138865</v>
+        <v>138689</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>99834</v>
+        <v>102470</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>89468</v>
+        <v>89047</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>181323</v>
+        <v>179178</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>38899</v>
+        <v>39563</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13808</v>
+        <v>12924</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>57539</v>
+        <v>57497</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>61098</v>
+        <v>60924</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>31624</v>
+        <v>28680</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>84123</v>
+        <v>84919</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>40724</v>
+        <v>39609</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>38405</v>
+        <v>38556</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>86378</v>
+        <v>87056</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>66716</v>
+        <v>65321</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>66463</v>
+        <v>66024</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>124356</v>
+        <v>122688</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>59302</v>
+        <v>60374</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>65746</v>
+        <v>64136</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>132361</v>
+        <v>132586</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>83434</v>
+        <v>83955</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>87812</v>
+        <v>89077</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>165448</v>
+        <v>164392</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>41035</v>
+        <v>43457</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>69364</v>
+        <v>69293</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>118209</v>
+        <v>117777</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>65491</v>
+        <v>65204</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>94921</v>
+        <v>95741</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>153650</v>
+        <v>153007</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>84961</v>
+        <v>85605</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>96541</v>
+        <v>97712</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>191921</v>
+        <v>191644</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>122752</v>
+        <v>122764</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>133493</v>
+        <v>133501</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>243529</v>
+        <v>242928</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>75691</v>
+        <v>75677</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>77524</v>
+        <v>76538</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>161512</v>
+        <v>163777</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>108012</v>
+        <v>108594</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>110386</v>
+        <v>111977</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>208449</v>
+        <v>208676</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>511617</v>
+        <v>502893</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>519621</v>
+        <v>517486</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1051953</v>
+        <v>1051058</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>590559</v>
+        <v>584517</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>600095</v>
+        <v>600337</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1167356</v>
+        <v>1159856</v>
       </c>
     </row>
     <row r="40">
